--- a/panduan.xlsx
+++ b/panduan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perpindahan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/perpindahan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB591D99-3594-AC4C-94EE-69B1E37FD4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="12320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blimbing" sheetId="1" r:id="rId1"/>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,23 +603,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -638,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -649,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
@@ -658,7 +659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -669,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="E3" s="4">
         <v>7</v>
@@ -678,7 +679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -689,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -698,7 +699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -709,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1008</v>
       </c>
       <c r="E5" s="4">
         <v>21</v>
@@ -718,7 +719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -729,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="4">
         <v>8</v>
@@ -738,7 +739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -749,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>1009</v>
       </c>
       <c r="E7" s="4">
         <v>12</v>
@@ -758,7 +759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -769,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
@@ -778,7 +779,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -789,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
+        <v>1010</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -798,7 +799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="4">
         <v>6</v>
@@ -818,7 +819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -829,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>1007</v>
       </c>
       <c r="E11" s="4">
         <v>24</v>
@@ -838,7 +839,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -849,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>1004</v>
       </c>
       <c r="E12" s="4">
         <v>13</v>
@@ -865,23 +866,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -901,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -912,7 +913,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -921,7 +922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -932,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -941,7 +942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -952,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1006</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -961,7 +962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1007</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -981,7 +982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -992,7 +993,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1001,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>1001</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1021,7 +1022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>1008</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1041,7 +1042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
+        <v>1011</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1061,7 +1062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1081,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>1003</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1101,7 +1102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>1005</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1127,20 +1128,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1160,18 +1161,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1180,18 +1181,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>1007</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1200,18 +1201,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1006</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1220,18 +1221,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1011</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1240,18 +1241,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -1260,18 +1261,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>1009</v>
       </c>
       <c r="E7">
         <v>19</v>
@@ -1280,18 +1281,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>1005</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1300,18 +1301,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
+        <v>1012</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1320,18 +1321,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1003</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1340,18 +1341,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>1010</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1360,18 +1361,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>1001</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -1380,18 +1381,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>11</v>
+        <v>1008</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1406,21 +1407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1440,18 +1441,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1460,18 +1461,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -1480,18 +1481,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -1500,18 +1501,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1010</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -1520,18 +1521,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>1006</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1540,18 +1541,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>1001</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -1560,18 +1561,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>1007</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -1580,18 +1581,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
+        <v>1009</v>
       </c>
       <c r="E9">
         <v>17</v>
@@ -1600,18 +1601,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1620,18 +1621,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>1008</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1640,18 +1641,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>1012</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1660,18 +1661,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>11</v>
+        <v>1004</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1686,20 +1687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView zoomScale="112" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1719,18 +1720,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1739,18 +1740,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>1008</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1759,18 +1760,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1004</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -1779,18 +1780,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1799,18 +1800,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -1819,18 +1820,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>1009</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1839,18 +1840,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>1003</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1859,18 +1860,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
+        <v>1010</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1879,18 +1880,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1899,18 +1900,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>1005</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1919,18 +1920,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>1006</v>
       </c>
       <c r="E12">
         <v>13</v>

--- a/panduan.xlsx
+++ b/panduan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/perpindahan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB591D99-3594-AC4C-94EE-69B1E37FD4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C25E4AC-1D14-FA4F-99C8-4F394690464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="12320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
